--- a/biology/Botanique/Hubertia/Hubertia.xlsx
+++ b/biology/Botanique/Hubertia/Hubertia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubertia est un genre de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (8 octobre 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (8 octobre 2015) :
 Hubertia adenodonta (DC.) C.Jeffrey
 Hubertia andringitrensis C.Jeffrey
 Hubertia bathiaei C.Jeffrey
@@ -536,7 +550,7 @@
 Hubertia rosellata (DC.) C.Jeffrey
 Hubertia tomentosa Bory (Ambaville blanc)
 Hubertia tsimihety C.Jeffrey
-Selon Tropicos                                           (8 octobre 2015)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 octobre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Hubertia adenodonta (DC.) C. Jeffrey
 Hubertia alleizettei (Humbert) C. Jeffrey
 Hubertia ambavilla Bory
@@ -590,7 +604,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En zoologie, Hubertia Robineau-Desvoidy 1863 est un genre de mouche synonyme de Bessa et Hubertia Georgescu, 1977 est un genre d'araignées synonyme d'Hubertella.
 </t>
